--- a/uploads/excel/new_order.xlsx
+++ b/uploads/excel/new_order.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\emunoz\OneDrive - Rolf Wittmer\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rolfwittmer-my.sharepoint.com/personal/edison_tiptoptravel_ec/Documents/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EA0EBC-736B-47B8-B47B-FB0C14A8E848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{728A619D-01B2-4E09-B6FB-F95C78E46DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EA61075-2830-4558-9006-18B78359FBE2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E05B6E4-449E-472C-84CB-F88F6DACB5DC}"/>
   </bookViews>
@@ -323,9 +323,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,12 +669,12 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="21" style="2" customWidth="1"/>
     <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
@@ -691,7 +695,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>8410660101153</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -705,7 +709,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>7861048690812</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -719,7 +723,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>7861048690188</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -733,7 +737,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>8410226017645</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -747,7 +751,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>7862110010194</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -761,7 +765,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>7861001921083</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -775,7 +779,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>8410095007105</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -789,7 +793,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>7861008342041</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -803,7 +807,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>7861042564935</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -817,7 +821,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>7861005600229</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -831,7 +835,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>7862114200713</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -845,7 +849,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>722008000249</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -859,7 +863,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>7862119090029</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -873,7 +877,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>7861042500063</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -887,7 +891,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>7861029700035</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -901,7 +905,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>7707211630486</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -915,7 +919,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>7861001299205</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -929,7 +933,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>7862119091071</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -943,7 +947,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>7861019600017</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -957,7 +961,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>7861042530145</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -971,7 +975,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>7861001941036</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -985,7 +989,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>7861091134356</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -999,7 +1003,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>7861004100959</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1013,7 +1017,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>7862106455053</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1027,7 +1031,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>7861048640220</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1041,7 +1045,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>7862122701493</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1055,7 +1059,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>7702054088340</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1069,7 +1073,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>7861042544579</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1083,7 +1087,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>7861001240887</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1097,7 +1101,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>7861006000363</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1111,7 +1115,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>7861032601787</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1125,7 +1129,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>7861042523369</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1139,7 +1143,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>7861026001012</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1153,7 +1157,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>7861042500308</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1167,7 +1171,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>44695002130</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1181,7 +1185,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>7861018400038</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1195,7 +1199,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>7861057600703</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1209,7 +1213,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>7861091155580</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1223,7 +1227,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>7861091196767</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1237,7 +1241,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>7861042541738</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1251,7 +1255,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>7861007211256</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1265,7 +1269,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>7862120710572</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1279,7 +1283,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>7861023500044</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1293,7 +1297,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>7861036713295</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1307,7 +1311,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>8445291182745</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1321,7 +1325,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>41331021647</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1335,7 +1339,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>7861001293746</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1349,7 +1353,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>7861001234909</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1363,7 +1367,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>7861042500216</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1377,7 +1381,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>7702626153797</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1391,7 +1395,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>7861031910804</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1405,7 +1409,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>7861001941234</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1419,7 +1423,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>7862101140206</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1433,7 +1437,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>8719200257146</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -1447,7 +1451,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="A56" s="3">
         <v>7861001261196</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -1461,7 +1465,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="A57" s="3">
         <v>7861001912012</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1475,7 +1479,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="A58" s="3">
         <v>7861015120014</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -1489,7 +1493,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="A59" s="3">
         <v>7861007306945</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1503,7 +1507,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="A60" s="3">
         <v>7861001267785</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1517,7 +1521,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="A61" s="3">
         <v>7861160800908</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -1531,7 +1535,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="A62" s="3">
         <v>7861042560449</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1545,7 +1549,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+      <c r="A63" s="3">
         <v>7861001932010</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -1559,7 +1563,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+      <c r="A64" s="3">
         <v>7861001923025</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -1573,7 +1577,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+      <c r="A65" s="3">
         <v>7622201099732</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -1587,7 +1591,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+      <c r="A66" s="3">
         <v>7622201099695</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -1601,7 +1605,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+      <c r="A67" s="3">
         <v>7861018290578</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -1615,7 +1619,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+      <c r="A68" s="3">
         <v>7861057500096</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -1629,7 +1633,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+      <c r="A69" s="3">
         <v>7861042553069</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -1643,7 +1647,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+      <c r="A70" s="3">
         <v>7861007900082</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -1657,7 +1661,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+      <c r="A71" s="3">
         <v>7861015108920</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -1671,7 +1675,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+      <c r="A72" s="3">
         <v>41390000027</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -1685,7 +1689,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+      <c r="A73" s="3">
         <v>7861018220254</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -1699,7 +1703,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="A74" s="3">
         <v>7861015160379</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -1713,7 +1717,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+      <c r="A75" s="3">
         <v>7861007305276</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -1727,7 +1731,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+      <c r="A76" s="3">
         <v>7861001235524</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -1741,7 +1745,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+      <c r="A77" s="3">
         <v>7861042538882</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -1755,7 +1759,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+      <c r="A78" s="3">
         <v>8410702037532</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -1769,7 +1773,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+      <c r="A79" s="3">
         <v>7861058220139</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -1783,7 +1787,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+      <c r="A80" s="3">
         <v>7861058209608</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -1797,7 +1801,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+      <c r="A81" s="3">
         <v>7804320569307</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -1817,49 +1821,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="74d56a54-6253-49af-9dde-609db7d41aef" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DFDABE89AEBAFC40B2417B437CFB6AC3" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b0cd73b5ccf93356e9cd4fc48e1f9794">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74d56a54-6253-49af-9dde-609db7d41aef" xmlns:ns4="15c23791-412b-494d-9514-6bfd1dc7436b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dcc312e3b1a27c29ed239405870c257a" ns3:_="" ns4:_="">
-    <xsd:import namespace="74d56a54-6253-49af-9dde-609db7d41aef"/>
-    <xsd:import namespace="15c23791-412b-494d-9514-6bfd1dc7436b"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008C7E4CFE7976B14B81D4C5D1DD1E52C5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b745c97b7e732ce6ab893c7f9d15a386">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="78368757-d54f-4d5f-9d37-16d0676caa23" xmlns:ns3="a56850d5-d898-4bfd-9b80-991e91e89fb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d95fb4021ae7ad5b563effa06d46dacb" ns2:_="" ns3:_="">
+    <xsd:import namespace="78368757-d54f-4d5f-9d37-16d0676caa23"/>
+    <xsd:import namespace="a56850d5-d898-4bfd-9b80-991e91e89fb2"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1867,7 +1850,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="74d56a54-6253-49af-9dde-609db7d41aef" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="78368757-d54f-4d5f-9d37-16d0676caa23" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1880,97 +1863,69 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="be3ca0f0-b902-41e1-af55-471844d5da19" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_activity" ma:index="16" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSystemTags" ma:index="21" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="23" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="15c23791-412b-494d-9514-6bfd1dc7436b" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a56850d5-d898-4bfd-9b80-991e91e89fb2" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6b7a86e6-2089-443a-9e57-7d6663bab24e}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a56850d5-d898-4bfd-9b80-991e91e89fb2">
       <xsd:complexType>
         <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
+          <xsd:extension base="dms:MultiChoiceLookup">
             <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
             </xsd:sequence>
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="19" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -2072,7 +2027,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="78368757-d54f-4d5f-9d37-16d0676caa23">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a56850d5-d898-4bfd-9b80-991e91e89fb2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74795EF6-2E15-4E22-8182-9A4309B3B362}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DE7B42C-D818-4CF8-8257-99735EBF47EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A4ED0D0-13C5-4017-8DA8-93C9BD9409EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2087,31 +2074,4 @@
     <ds:schemaRef ds:uri="74d56a54-6253-49af-9dde-609db7d41aef"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DE7B42C-D818-4CF8-8257-99735EBF47EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AFBE616-7E4D-463F-9414-8B823D297FF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74d56a54-6253-49af-9dde-609db7d41aef"/>
-    <ds:schemaRef ds:uri="15c23791-412b-494d-9514-6bfd1dc7436b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>